--- a/Data/Transitions/19591970Translation.xlsx
+++ b/Data/Transitions/19591970Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="649">
   <si>
     <t>id</t>
   </si>
@@ -433,7 +433,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -625,7 +625,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1697,9 +1697,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3842,7 +3839,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>561</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3853,7 +3850,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3864,7 +3861,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3919,7 +3916,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4051,7 +4048,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4095,7 +4092,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4106,7 +4103,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4150,7 +4147,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4238,7 +4235,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4249,7 +4246,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4271,7 +4268,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4348,7 +4345,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4381,7 +4378,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4403,7 +4400,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4414,7 +4411,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4425,7 +4422,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4491,7 +4488,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4546,7 +4543,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4601,7 +4598,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4623,7 +4620,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4678,7 +4675,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4744,7 +4741,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4799,7 +4796,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4898,7 +4895,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4964,7 +4961,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5030,7 +5027,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5041,7 +5038,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5195,7 +5192,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5239,7 +5236,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5250,7 +5247,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5327,7 +5324,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5338,7 +5335,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5415,7 +5412,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5503,7 +5500,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5536,7 +5533,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5558,7 +5555,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5591,7 +5588,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5613,7 +5610,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5635,7 +5632,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5657,7 +5654,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5712,7 +5709,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5855,7 +5852,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5866,7 +5863,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5910,7 +5907,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5932,7 +5929,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6031,7 +6028,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6053,7 +6050,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6108,7 +6105,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6130,7 +6127,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6229,7 +6226,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6240,7 +6237,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6251,7 +6248,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6262,7 +6259,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6350,7 +6347,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6416,7 +6413,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6427,7 +6424,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6471,7 +6468,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6537,7 +6534,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6548,7 +6545,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6592,7 +6589,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6647,7 +6644,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6691,7 +6688,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6955,7 +6952,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7010,7 +7007,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7021,7 +7018,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7043,7 +7040,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7076,7 +7073,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7098,7 +7095,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7109,7 +7106,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7120,7 +7117,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7142,7 +7139,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7230,7 +7227,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7274,7 +7271,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7351,7 +7348,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7395,7 +7392,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7406,7 +7403,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7417,7 +7414,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7472,7 +7469,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7483,7 +7480,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7505,7 +7502,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7527,7 +7524,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7648,7 +7645,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7714,7 +7711,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7802,7 +7799,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7824,7 +7821,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7846,7 +7843,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7857,7 +7854,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7879,7 +7876,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7901,7 +7898,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8000,7 +7997,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
